--- a/all_groups_counts.xlsx
+++ b/all_groups_counts.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f174a984aa7f80b/Documents/citsec_ignite/ignite_trading/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_9E2C6EB2503641C745BCD4E857C06DEBAB9478E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{327C4B80-8688-460F-B9AD-26FA9A9098D8}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,8 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,29 +93,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -108,10 +126,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -149,71 +167,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -241,7 +259,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -264,11 +282,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -277,13 +295,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -293,7 +311,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -302,7 +320,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -311,7 +329,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -319,10 +337,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -387,22 +405,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>93</v>
       </c>
@@ -422,18 +440,18 @@
       </c>
       <c r="C2" s="2">
         <f>SUM(A2,B2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>69</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>13</v>
       </c>
@@ -441,10 +459,11 @@
         <v>51</v>
       </c>
       <c r="C4" s="2">
-        <f>SUM(A4:B4)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <f t="shared" ref="C4:C10" si="0">SUM(A4:B4)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>82</v>
       </c>
@@ -452,10 +471,11 @@
         <v>54</v>
       </c>
       <c r="C5" s="2">
-        <f>SUM(A5:B5)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>97</v>
       </c>
@@ -463,10 +483,11 @@
         <v>71</v>
       </c>
       <c r="C6" s="2">
-        <f>SUM(A6:B6)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>82</v>
       </c>
@@ -474,10 +495,11 @@
         <v>71</v>
       </c>
       <c r="C7" s="2">
-        <f>SUM(A7:B7)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>21</v>
       </c>
@@ -485,10 +507,11 @@
         <v>56</v>
       </c>
       <c r="C8" s="2">
-        <f>SUM(A8:B8)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>91</v>
       </c>
@@ -496,10 +519,11 @@
         <v>86</v>
       </c>
       <c r="C9" s="2">
-        <f>SUM(A9:B9)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>12</v>
       </c>
@@ -507,19 +531,19 @@
         <v>35</v>
       </c>
       <c r="C10" s="2">
-        <f>SUM(A10:B10)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>69</v>
       </c>
-      <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -527,10 +551,11 @@
         <v>42</v>
       </c>
       <c r="C12" s="2">
-        <f>SUM(A12:B12)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <f t="shared" ref="C12:C43" si="1">SUM(A12:B12)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>59</v>
       </c>
@@ -538,10 +563,11 @@
         <v>54</v>
       </c>
       <c r="C13" s="2">
-        <f>SUM(A13:B13)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>75</v>
       </c>
@@ -549,10 +575,11 @@
         <v>70</v>
       </c>
       <c r="C14" s="2">
-        <f>SUM(A14:B14)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -560,10 +587,11 @@
         <v>23</v>
       </c>
       <c r="C15" s="2">
-        <f>SUM(A15:B15)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -571,10 +599,11 @@
         <v>44</v>
       </c>
       <c r="C16" s="2">
-        <f>SUM(A16:B16)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>76</v>
       </c>
@@ -582,10 +611,11 @@
         <v>86</v>
       </c>
       <c r="C17" s="2">
-        <f>SUM(A17:B17)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>76</v>
       </c>
@@ -593,10 +623,11 @@
         <v>58</v>
       </c>
       <c r="C18" s="2">
-        <f>SUM(A18:B18)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -604,10 +635,11 @@
         <v>21</v>
       </c>
       <c r="C19" s="2">
-        <f>SUM(A19:B19)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>67</v>
       </c>
@@ -615,10 +647,11 @@
         <v>63</v>
       </c>
       <c r="C20" s="2">
-        <f>SUM(A20:B20)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>8</v>
       </c>
@@ -626,10 +659,11 @@
         <v>41</v>
       </c>
       <c r="C21" s="2">
-        <f>SUM(A21:B21)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -637,10 +671,11 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <f>SUM(A22:B22)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>73</v>
       </c>
@@ -648,10 +683,11 @@
         <v>72</v>
       </c>
       <c r="C23" s="2">
-        <f>SUM(A23:B23)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>36</v>
       </c>
@@ -659,10 +695,11 @@
         <v>68</v>
       </c>
       <c r="C24" s="2">
-        <f>SUM(A24:B24)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>57</v>
       </c>
@@ -670,10 +707,11 @@
         <v>52</v>
       </c>
       <c r="C25" s="2">
-        <f>SUM(A25:B25)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>31</v>
       </c>
@@ -681,10 +719,11 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <f>SUM(A26:B26)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>21</v>
       </c>
@@ -692,10 +731,11 @@
         <v>42</v>
       </c>
       <c r="C27" s="2">
-        <f>SUM(A27:B27)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>47</v>
       </c>
@@ -703,10 +743,11 @@
         <v>46</v>
       </c>
       <c r="C28" s="2">
-        <f>SUM(A28:B28)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>13</v>
       </c>
@@ -714,10 +755,11 @@
         <v>45</v>
       </c>
       <c r="C29" s="2">
-        <f>SUM(A29:B29)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>81</v>
       </c>
@@ -725,10 +767,11 @@
         <v>72</v>
       </c>
       <c r="C30" s="2">
-        <f>SUM(A30:B30)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>67</v>
       </c>
@@ -736,10 +779,11 @@
         <v>64</v>
       </c>
       <c r="C31" s="2">
-        <f>SUM(A31:B31)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>41</v>
       </c>
@@ -747,10 +791,11 @@
         <v>56</v>
       </c>
       <c r="C32" s="2">
-        <f>SUM(A32:B32)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>46</v>
       </c>
@@ -758,10 +803,11 @@
         <v>66</v>
       </c>
       <c r="C33" s="2">
-        <f>SUM(A33:B33)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -769,10 +815,11 @@
         <v>39</v>
       </c>
       <c r="C34" s="2">
-        <f>SUM(A34:B34)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -780,10 +827,11 @@
         <v>32</v>
       </c>
       <c r="C35" s="2">
-        <f>SUM(A35:B35)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>64</v>
       </c>
@@ -791,10 +839,11 @@
         <v>67</v>
       </c>
       <c r="C36" s="2">
-        <f>SUM(A36:B36)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>88</v>
       </c>
@@ -802,10 +851,11 @@
         <v>55</v>
       </c>
       <c r="C37" s="2">
-        <f>SUM(A37:B37)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>42</v>
       </c>
@@ -813,10 +863,11 @@
         <v>56</v>
       </c>
       <c r="C38" s="2">
-        <f>SUM(A38:B38)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>95</v>
       </c>
@@ -824,10 +875,11 @@
         <v>91</v>
       </c>
       <c r="C39" s="2">
-        <f>SUM(A39:B39)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>60</v>
       </c>
@@ -835,10 +887,11 @@
         <v>75</v>
       </c>
       <c r="C40" s="2">
-        <f>SUM(A40:B40)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>31</v>
       </c>
@@ -846,10 +899,11 @@
         <v>46</v>
       </c>
       <c r="C41" s="2">
-        <f>SUM(A41:B41)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>55</v>
       </c>
@@ -857,10 +911,11 @@
         <v>74</v>
       </c>
       <c r="C42" s="2">
-        <f>SUM(A42:B42)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>46</v>
       </c>
@@ -868,10 +923,11 @@
         <v>59</v>
       </c>
       <c r="C43" s="2">
-        <f>SUM(A43:B43)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -879,10 +935,11 @@
         <v>35</v>
       </c>
       <c r="C44" s="2">
-        <f>SUM(A44:B44)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+        <f t="shared" ref="C44:C75" si="2">SUM(A44:B44)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>33</v>
       </c>
@@ -890,10 +947,11 @@
         <v>51</v>
       </c>
       <c r="C45" s="2">
-        <f>SUM(A45:B45)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>30</v>
       </c>
@@ -901,10 +959,11 @@
         <v>59</v>
       </c>
       <c r="C46" s="2">
-        <f>SUM(A46:B46)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>27</v>
       </c>
@@ -912,10 +971,11 @@
         <v>61</v>
       </c>
       <c r="C47" s="2">
-        <f>SUM(A47:B47)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>74</v>
       </c>
@@ -923,10 +983,11 @@
         <v>65</v>
       </c>
       <c r="C48" s="2">
-        <f>SUM(A48:B48)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>15</v>
       </c>
@@ -934,10 +995,11 @@
         <v>54</v>
       </c>
       <c r="C49" s="2">
-        <f>SUM(A49:B49)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>40</v>
       </c>
@@ -945,10 +1007,11 @@
         <v>56</v>
       </c>
       <c r="C50" s="2">
-        <f>SUM(A50:B50)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>71</v>
       </c>
@@ -956,10 +1019,11 @@
         <v>66</v>
       </c>
       <c r="C51" s="2">
-        <f>SUM(A51:B51)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>77</v>
       </c>
@@ -967,10 +1031,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="2">
-        <f>SUM(A52:B52)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>97</v>
       </c>
@@ -978,10 +1043,11 @@
         <v>100</v>
       </c>
       <c r="C53" s="2">
-        <f>SUM(A53:B53)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>0</v>
       </c>
@@ -989,10 +1055,11 @@
         <v>34</v>
       </c>
       <c r="C54" s="2">
-        <f>SUM(A54:B54)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>9</v>
       </c>
@@ -1000,10 +1067,11 @@
         <v>28</v>
       </c>
       <c r="C55" s="2">
-        <f>SUM(A55:B55)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>32</v>
       </c>
@@ -1011,10 +1079,11 @@
         <v>55</v>
       </c>
       <c r="C56" s="2">
-        <f>SUM(A56:B56)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>30</v>
       </c>
@@ -1022,10 +1091,11 @@
         <v>46</v>
       </c>
       <c r="C57" s="2">
-        <f>SUM(A57:B57)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>0</v>
       </c>
@@ -1033,10 +1103,11 @@
         <v>27</v>
       </c>
       <c r="C58" s="2">
-        <f>SUM(A58:B58)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>7</v>
       </c>
@@ -1044,10 +1115,11 @@
         <v>56</v>
       </c>
       <c r="C59" s="2">
-        <f>SUM(A59:B59)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>70</v>
       </c>
@@ -1055,10 +1127,11 @@
         <v>66</v>
       </c>
       <c r="C60" s="2">
-        <f>SUM(A60:B60)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>92</v>
       </c>
@@ -1066,10 +1139,11 @@
         <v>93</v>
       </c>
       <c r="C61" s="2">
-        <f>SUM(A61:B61)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>62</v>
       </c>
@@ -1077,10 +1151,11 @@
         <v>71</v>
       </c>
       <c r="C62" s="2">
-        <f>SUM(A62:B62)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>42</v>
       </c>
@@ -1088,10 +1163,11 @@
         <v>65</v>
       </c>
       <c r="C63" s="2">
-        <f>SUM(A63:B63)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>72</v>
       </c>
@@ -1099,10 +1175,11 @@
         <v>61</v>
       </c>
       <c r="C64" s="2">
-        <f>SUM(A64:B64)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>94</v>
       </c>
@@ -1110,10 +1187,11 @@
         <v>69</v>
       </c>
       <c r="C65" s="2">
-        <f>SUM(A65:B65)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>53</v>
       </c>
@@ -1121,10 +1199,11 @@
         <v>45</v>
       </c>
       <c r="C66" s="2">
-        <f>SUM(A66:B66)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>77</v>
       </c>
@@ -1132,10 +1211,11 @@
         <v>70</v>
       </c>
       <c r="C67" s="2">
-        <f>SUM(A67:B67)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>94</v>
       </c>
@@ -1143,10 +1223,11 @@
         <v>75</v>
       </c>
       <c r="C68" s="2">
-        <f>SUM(A68:B68)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>78</v>
       </c>
@@ -1154,10 +1235,11 @@
         <v>71</v>
       </c>
       <c r="C69" s="2">
-        <f>SUM(A69:B69)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>88</v>
       </c>
@@ -1165,10 +1247,11 @@
         <v>61</v>
       </c>
       <c r="C70" s="2">
-        <f>SUM(A70:B70)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>11</v>
       </c>
@@ -1176,10 +1259,11 @@
         <v>60</v>
       </c>
       <c r="C71" s="2">
-        <f>SUM(A71:B71)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>14</v>
       </c>
@@ -1187,10 +1271,11 @@
         <v>45</v>
       </c>
       <c r="C72" s="2">
-        <f>SUM(A72:B72)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>44</v>
       </c>
@@ -1198,10 +1283,11 @@
         <v>64</v>
       </c>
       <c r="C73" s="2">
-        <f>SUM(A73:B73)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>5</v>
       </c>
@@ -1209,10 +1295,11 @@
         <v>40</v>
       </c>
       <c r="C74" s="2">
-        <f>SUM(A74:B74)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>44</v>
       </c>
@@ -1220,10 +1307,11 @@
         <v>40</v>
       </c>
       <c r="C75" s="2">
-        <f>SUM(A75:B75)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>42</v>
       </c>
@@ -1231,10 +1319,11 @@
         <v>57</v>
       </c>
       <c r="C76" s="2">
-        <f>SUM(A76:B76)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+        <f t="shared" ref="C76:C111" si="3">SUM(A76:B76)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>37</v>
       </c>
@@ -1242,10 +1331,11 @@
         <v>52</v>
       </c>
       <c r="C77" s="2">
-        <f>SUM(A77:B77)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>93</v>
       </c>
@@ -1253,10 +1343,11 @@
         <v>85</v>
       </c>
       <c r="C78" s="2">
-        <f>SUM(A78:B78)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>67</v>
       </c>
@@ -1264,10 +1355,11 @@
         <v>51</v>
       </c>
       <c r="C79" s="2">
-        <f>SUM(A79:B79)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>25</v>
       </c>
@@ -1275,10 +1367,11 @@
         <v>51</v>
       </c>
       <c r="C80" s="2">
-        <f>SUM(A80:B80)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>78</v>
       </c>
@@ -1286,10 +1379,11 @@
         <v>64</v>
       </c>
       <c r="C81" s="2">
-        <f>SUM(A81:B81)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>44</v>
       </c>
@@ -1297,10 +1391,11 @@
         <v>41</v>
       </c>
       <c r="C82" s="2">
-        <f>SUM(A82:B82)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>16</v>
       </c>
@@ -1308,10 +1403,11 @@
         <v>48</v>
       </c>
       <c r="C83" s="2">
-        <f>SUM(A83:B83)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>55</v>
       </c>
@@ -1319,10 +1415,11 @@
         <v>41</v>
       </c>
       <c r="C84" s="2">
-        <f>SUM(A84:B84)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>16</v>
       </c>
@@ -1330,10 +1427,11 @@
         <v>43</v>
       </c>
       <c r="C85" s="2">
-        <f>SUM(A85:B85)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>32</v>
       </c>
@@ -1341,10 +1439,11 @@
         <v>44</v>
       </c>
       <c r="C86" s="2">
-        <f>SUM(A86:B86)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>90</v>
       </c>
@@ -1352,10 +1451,11 @@
         <v>90</v>
       </c>
       <c r="C87" s="2">
-        <f>SUM(A87:B87)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>90</v>
       </c>
@@ -1363,10 +1463,11 @@
         <v>99</v>
       </c>
       <c r="C88" s="2">
-        <f>SUM(A88:B88)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>78</v>
       </c>
@@ -1374,10 +1475,11 @@
         <v>61</v>
       </c>
       <c r="C89" s="2">
-        <f>SUM(A89:B89)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>52</v>
       </c>
@@ -1385,10 +1487,11 @@
         <v>77</v>
       </c>
       <c r="C90" s="2">
-        <f>SUM(A90:B90)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>8</v>
       </c>
@@ -1396,10 +1499,11 @@
         <v>46</v>
       </c>
       <c r="C91" s="2">
-        <f>SUM(A91:B91)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>82</v>
       </c>
@@ -1407,10 +1511,11 @@
         <v>67</v>
       </c>
       <c r="C92" s="2">
-        <f>SUM(A92:B92)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>36</v>
       </c>
@@ -1418,10 +1523,11 @@
         <v>62</v>
       </c>
       <c r="C93" s="2">
-        <f>SUM(A93:B93)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>42</v>
       </c>
@@ -1429,10 +1535,11 @@
         <v>67</v>
       </c>
       <c r="C94" s="2">
-        <f>SUM(A94:B94)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>64</v>
       </c>
@@ -1440,10 +1547,11 @@
         <v>66</v>
       </c>
       <c r="C95" s="2">
-        <f>SUM(A95:B95)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>44</v>
       </c>
@@ -1451,10 +1559,11 @@
         <v>58</v>
       </c>
       <c r="C96" s="2">
-        <f>SUM(A96:B96)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>82</v>
       </c>
@@ -1462,10 +1571,11 @@
         <v>58</v>
       </c>
       <c r="C97" s="2">
-        <f>SUM(A97:B97)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>26</v>
       </c>
@@ -1473,10 +1583,11 @@
         <v>63</v>
       </c>
       <c r="C98" s="2">
-        <f>SUM(A98:B98)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>59</v>
       </c>
@@ -1484,10 +1595,11 @@
         <v>49</v>
       </c>
       <c r="C99" s="2">
-        <f>SUM(A99:B99)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>63</v>
       </c>
@@ -1495,10 +1607,11 @@
         <v>50</v>
       </c>
       <c r="C100" s="2">
-        <f>SUM(A100:B100)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>20</v>
       </c>
@@ -1506,7 +1619,128 @@
         <v>41</v>
       </c>
       <c r="C101" s="2">
-        <f>SUM(A101:B101)</f>
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>81</v>
+      </c>
+      <c r="B102" s="1">
+        <v>86</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="3"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>29</v>
+      </c>
+      <c r="B103" s="1">
+        <v>55</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>67</v>
+      </c>
+      <c r="B104" s="1">
+        <v>54</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>19</v>
+      </c>
+      <c r="B105" s="1">
+        <v>46</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>88</v>
+      </c>
+      <c r="B106" s="1">
+        <v>83</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="3"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>90</v>
+      </c>
+      <c r="B107" s="1">
+        <v>78</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>55</v>
+      </c>
+      <c r="B108" s="1">
+        <v>65</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>30</v>
+      </c>
+      <c r="B109" s="1">
+        <v>46</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1">
+        <v>33</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>60</v>
+      </c>
+      <c r="B111" s="1">
+        <v>78</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="3"/>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/all_groups_counts.xlsx
+++ b/all_groups_counts.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4247cc38f59c4ace/Documents/CitSecIgnite/ignite_trading/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="81" documentId="11_9E2C6EB2503641C745BCD4E857C06DEBAB9478E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C5642BE-421F-4E52-8C29-4AC366B39CED}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,8 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,32 +93,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -108,10 +130,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -149,71 +171,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -241,7 +263,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -264,11 +286,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -277,13 +299,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -293,7 +315,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -302,7 +324,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -311,7 +333,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -319,10 +341,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -387,22 +409,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>93</v>
       </c>
@@ -422,18 +444,18 @@
       </c>
       <c r="C2" s="2">
         <f>SUM(A2,B2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>69</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>13</v>
       </c>
@@ -441,10 +463,11 @@
         <v>51</v>
       </c>
       <c r="C4" s="2">
-        <f>SUM(A4:B4)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <f t="shared" ref="C4:C10" si="0">SUM(A4:B4)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>82</v>
       </c>
@@ -452,10 +475,11 @@
         <v>54</v>
       </c>
       <c r="C5" s="2">
-        <f>SUM(A5:B5)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>97</v>
       </c>
@@ -463,10 +487,11 @@
         <v>71</v>
       </c>
       <c r="C6" s="2">
-        <f>SUM(A6:B6)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>82</v>
       </c>
@@ -474,10 +499,11 @@
         <v>71</v>
       </c>
       <c r="C7" s="2">
-        <f>SUM(A7:B7)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>21</v>
       </c>
@@ -485,10 +511,11 @@
         <v>56</v>
       </c>
       <c r="C8" s="2">
-        <f>SUM(A8:B8)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>91</v>
       </c>
@@ -496,10 +523,11 @@
         <v>86</v>
       </c>
       <c r="C9" s="2">
-        <f>SUM(A9:B9)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>12</v>
       </c>
@@ -507,19 +535,19 @@
         <v>35</v>
       </c>
       <c r="C10" s="2">
-        <f>SUM(A10:B10)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>69</v>
       </c>
-      <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -527,10 +555,11 @@
         <v>42</v>
       </c>
       <c r="C12" s="2">
-        <f>SUM(A12:B12)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <f t="shared" ref="C12:C43" si="1">SUM(A12:B12)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>59</v>
       </c>
@@ -538,10 +567,11 @@
         <v>54</v>
       </c>
       <c r="C13" s="2">
-        <f>SUM(A13:B13)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>75</v>
       </c>
@@ -549,10 +579,11 @@
         <v>70</v>
       </c>
       <c r="C14" s="2">
-        <f>SUM(A14:B14)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -560,10 +591,11 @@
         <v>23</v>
       </c>
       <c r="C15" s="2">
-        <f>SUM(A15:B15)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -571,10 +603,11 @@
         <v>44</v>
       </c>
       <c r="C16" s="2">
-        <f>SUM(A16:B16)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>76</v>
       </c>
@@ -582,10 +615,11 @@
         <v>86</v>
       </c>
       <c r="C17" s="2">
-        <f>SUM(A17:B17)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>76</v>
       </c>
@@ -593,10 +627,11 @@
         <v>58</v>
       </c>
       <c r="C18" s="2">
-        <f>SUM(A18:B18)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -604,10 +639,11 @@
         <v>21</v>
       </c>
       <c r="C19" s="2">
-        <f>SUM(A19:B19)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>67</v>
       </c>
@@ -615,10 +651,11 @@
         <v>63</v>
       </c>
       <c r="C20" s="2">
-        <f>SUM(A20:B20)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>8</v>
       </c>
@@ -626,10 +663,11 @@
         <v>41</v>
       </c>
       <c r="C21" s="2">
-        <f>SUM(A21:B21)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -637,10 +675,11 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <f>SUM(A22:B22)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>73</v>
       </c>
@@ -648,10 +687,11 @@
         <v>72</v>
       </c>
       <c r="C23" s="2">
-        <f>SUM(A23:B23)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>36</v>
       </c>
@@ -659,10 +699,11 @@
         <v>68</v>
       </c>
       <c r="C24" s="2">
-        <f>SUM(A24:B24)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>57</v>
       </c>
@@ -670,10 +711,11 @@
         <v>52</v>
       </c>
       <c r="C25" s="2">
-        <f>SUM(A25:B25)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>31</v>
       </c>
@@ -681,10 +723,11 @@
         <v>58</v>
       </c>
       <c r="C26" s="2">
-        <f>SUM(A26:B26)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>21</v>
       </c>
@@ -692,10 +735,11 @@
         <v>42</v>
       </c>
       <c r="C27" s="2">
-        <f>SUM(A27:B27)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>47</v>
       </c>
@@ -703,10 +747,11 @@
         <v>46</v>
       </c>
       <c r="C28" s="2">
-        <f>SUM(A28:B28)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>13</v>
       </c>
@@ -714,10 +759,11 @@
         <v>45</v>
       </c>
       <c r="C29" s="2">
-        <f>SUM(A29:B29)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>81</v>
       </c>
@@ -725,10 +771,11 @@
         <v>72</v>
       </c>
       <c r="C30" s="2">
-        <f>SUM(A30:B30)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>67</v>
       </c>
@@ -736,10 +783,11 @@
         <v>64</v>
       </c>
       <c r="C31" s="2">
-        <f>SUM(A31:B31)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>41</v>
       </c>
@@ -747,10 +795,11 @@
         <v>56</v>
       </c>
       <c r="C32" s="2">
-        <f>SUM(A32:B32)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>46</v>
       </c>
@@ -758,10 +807,11 @@
         <v>66</v>
       </c>
       <c r="C33" s="2">
-        <f>SUM(A33:B33)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>10</v>
       </c>
@@ -769,10 +819,11 @@
         <v>39</v>
       </c>
       <c r="C34" s="2">
-        <f>SUM(A34:B34)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -780,10 +831,11 @@
         <v>32</v>
       </c>
       <c r="C35" s="2">
-        <f>SUM(A35:B35)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>64</v>
       </c>
@@ -791,10 +843,11 @@
         <v>67</v>
       </c>
       <c r="C36" s="2">
-        <f>SUM(A36:B36)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>88</v>
       </c>
@@ -802,10 +855,11 @@
         <v>55</v>
       </c>
       <c r="C37" s="2">
-        <f>SUM(A37:B37)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>42</v>
       </c>
@@ -813,10 +867,11 @@
         <v>56</v>
       </c>
       <c r="C38" s="2">
-        <f>SUM(A38:B38)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>95</v>
       </c>
@@ -824,10 +879,11 @@
         <v>91</v>
       </c>
       <c r="C39" s="2">
-        <f>SUM(A39:B39)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>60</v>
       </c>
@@ -835,10 +891,11 @@
         <v>75</v>
       </c>
       <c r="C40" s="2">
-        <f>SUM(A40:B40)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>31</v>
       </c>
@@ -846,10 +903,11 @@
         <v>46</v>
       </c>
       <c r="C41" s="2">
-        <f>SUM(A41:B41)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>55</v>
       </c>
@@ -857,10 +915,11 @@
         <v>74</v>
       </c>
       <c r="C42" s="2">
-        <f>SUM(A42:B42)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>46</v>
       </c>
@@ -868,10 +927,11 @@
         <v>59</v>
       </c>
       <c r="C43" s="2">
-        <f>SUM(A43:B43)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>22</v>
       </c>
@@ -879,10 +939,11 @@
         <v>35</v>
       </c>
       <c r="C44" s="2">
-        <f>SUM(A44:B44)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+        <f t="shared" ref="C44:C75" si="2">SUM(A44:B44)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>33</v>
       </c>
@@ -890,10 +951,11 @@
         <v>51</v>
       </c>
       <c r="C45" s="2">
-        <f>SUM(A45:B45)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>30</v>
       </c>
@@ -901,10 +963,11 @@
         <v>59</v>
       </c>
       <c r="C46" s="2">
-        <f>SUM(A46:B46)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>27</v>
       </c>
@@ -912,10 +975,11 @@
         <v>61</v>
       </c>
       <c r="C47" s="2">
-        <f>SUM(A47:B47)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>74</v>
       </c>
@@ -923,10 +987,11 @@
         <v>65</v>
       </c>
       <c r="C48" s="2">
-        <f>SUM(A48:B48)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>15</v>
       </c>
@@ -934,10 +999,11 @@
         <v>54</v>
       </c>
       <c r="C49" s="2">
-        <f>SUM(A49:B49)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>40</v>
       </c>
@@ -945,10 +1011,11 @@
         <v>56</v>
       </c>
       <c r="C50" s="2">
-        <f>SUM(A50:B50)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>71</v>
       </c>
@@ -956,10 +1023,11 @@
         <v>66</v>
       </c>
       <c r="C51" s="2">
-        <f>SUM(A51:B51)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>77</v>
       </c>
@@ -967,10 +1035,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="2">
-        <f>SUM(A52:B52)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>97</v>
       </c>
@@ -978,10 +1047,11 @@
         <v>100</v>
       </c>
       <c r="C53" s="2">
-        <f>SUM(A53:B53)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>0</v>
       </c>
@@ -989,10 +1059,11 @@
         <v>34</v>
       </c>
       <c r="C54" s="2">
-        <f>SUM(A54:B54)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>9</v>
       </c>
@@ -1000,10 +1071,11 @@
         <v>28</v>
       </c>
       <c r="C55" s="2">
-        <f>SUM(A55:B55)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>32</v>
       </c>
@@ -1011,10 +1083,11 @@
         <v>55</v>
       </c>
       <c r="C56" s="2">
-        <f>SUM(A56:B56)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>30</v>
       </c>
@@ -1022,10 +1095,11 @@
         <v>46</v>
       </c>
       <c r="C57" s="2">
-        <f>SUM(A57:B57)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>0</v>
       </c>
@@ -1033,10 +1107,11 @@
         <v>27</v>
       </c>
       <c r="C58" s="2">
-        <f>SUM(A58:B58)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>7</v>
       </c>
@@ -1044,10 +1119,11 @@
         <v>56</v>
       </c>
       <c r="C59" s="2">
-        <f>SUM(A59:B59)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>70</v>
       </c>
@@ -1055,10 +1131,11 @@
         <v>66</v>
       </c>
       <c r="C60" s="2">
-        <f>SUM(A60:B60)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>92</v>
       </c>
@@ -1066,10 +1143,11 @@
         <v>93</v>
       </c>
       <c r="C61" s="2">
-        <f>SUM(A61:B61)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>62</v>
       </c>
@@ -1077,10 +1155,11 @@
         <v>71</v>
       </c>
       <c r="C62" s="2">
-        <f>SUM(A62:B62)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>42</v>
       </c>
@@ -1088,10 +1167,11 @@
         <v>65</v>
       </c>
       <c r="C63" s="2">
-        <f>SUM(A63:B63)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>72</v>
       </c>
@@ -1099,10 +1179,11 @@
         <v>61</v>
       </c>
       <c r="C64" s="2">
-        <f>SUM(A64:B64)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>94</v>
       </c>
@@ -1110,10 +1191,11 @@
         <v>69</v>
       </c>
       <c r="C65" s="2">
-        <f>SUM(A65:B65)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>53</v>
       </c>
@@ -1121,10 +1203,11 @@
         <v>45</v>
       </c>
       <c r="C66" s="2">
-        <f>SUM(A66:B66)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>77</v>
       </c>
@@ -1132,10 +1215,11 @@
         <v>70</v>
       </c>
       <c r="C67" s="2">
-        <f>SUM(A67:B67)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>94</v>
       </c>
@@ -1143,10 +1227,11 @@
         <v>75</v>
       </c>
       <c r="C68" s="2">
-        <f>SUM(A68:B68)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>78</v>
       </c>
@@ -1154,10 +1239,11 @@
         <v>71</v>
       </c>
       <c r="C69" s="2">
-        <f>SUM(A69:B69)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>88</v>
       </c>
@@ -1165,10 +1251,11 @@
         <v>61</v>
       </c>
       <c r="C70" s="2">
-        <f>SUM(A70:B70)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>11</v>
       </c>
@@ -1176,10 +1263,11 @@
         <v>60</v>
       </c>
       <c r="C71" s="2">
-        <f>SUM(A71:B71)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>14</v>
       </c>
@@ -1187,10 +1275,11 @@
         <v>45</v>
       </c>
       <c r="C72" s="2">
-        <f>SUM(A72:B72)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>44</v>
       </c>
@@ -1198,10 +1287,11 @@
         <v>64</v>
       </c>
       <c r="C73" s="2">
-        <f>SUM(A73:B73)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>5</v>
       </c>
@@ -1209,10 +1299,11 @@
         <v>40</v>
       </c>
       <c r="C74" s="2">
-        <f>SUM(A74:B74)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>44</v>
       </c>
@@ -1220,10 +1311,11 @@
         <v>40</v>
       </c>
       <c r="C75" s="2">
-        <f>SUM(A75:B75)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>42</v>
       </c>
@@ -1231,10 +1323,11 @@
         <v>57</v>
       </c>
       <c r="C76" s="2">
-        <f>SUM(A76:B76)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+        <f t="shared" ref="C76:C141" si="3">SUM(A76:B76)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>37</v>
       </c>
@@ -1242,10 +1335,11 @@
         <v>52</v>
       </c>
       <c r="C77" s="2">
-        <f>SUM(A77:B77)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>93</v>
       </c>
@@ -1253,10 +1347,11 @@
         <v>85</v>
       </c>
       <c r="C78" s="2">
-        <f>SUM(A78:B78)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>67</v>
       </c>
@@ -1264,10 +1359,11 @@
         <v>51</v>
       </c>
       <c r="C79" s="2">
-        <f>SUM(A79:B79)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>25</v>
       </c>
@@ -1275,10 +1371,11 @@
         <v>51</v>
       </c>
       <c r="C80" s="2">
-        <f>SUM(A80:B80)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>78</v>
       </c>
@@ -1286,10 +1383,11 @@
         <v>64</v>
       </c>
       <c r="C81" s="2">
-        <f>SUM(A81:B81)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>44</v>
       </c>
@@ -1297,10 +1395,11 @@
         <v>41</v>
       </c>
       <c r="C82" s="2">
-        <f>SUM(A82:B82)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>16</v>
       </c>
@@ -1308,10 +1407,11 @@
         <v>48</v>
       </c>
       <c r="C83" s="2">
-        <f>SUM(A83:B83)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>55</v>
       </c>
@@ -1319,10 +1419,11 @@
         <v>41</v>
       </c>
       <c r="C84" s="2">
-        <f>SUM(A84:B84)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>16</v>
       </c>
@@ -1330,10 +1431,11 @@
         <v>43</v>
       </c>
       <c r="C85" s="2">
-        <f>SUM(A85:B85)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>32</v>
       </c>
@@ -1341,10 +1443,11 @@
         <v>44</v>
       </c>
       <c r="C86" s="2">
-        <f>SUM(A86:B86)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>90</v>
       </c>
@@ -1352,10 +1455,11 @@
         <v>90</v>
       </c>
       <c r="C87" s="2">
-        <f>SUM(A87:B87)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>90</v>
       </c>
@@ -1363,10 +1467,11 @@
         <v>99</v>
       </c>
       <c r="C88" s="2">
-        <f>SUM(A88:B88)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>78</v>
       </c>
@@ -1374,10 +1479,11 @@
         <v>61</v>
       </c>
       <c r="C89" s="2">
-        <f>SUM(A89:B89)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>52</v>
       </c>
@@ -1385,10 +1491,11 @@
         <v>77</v>
       </c>
       <c r="C90" s="2">
-        <f>SUM(A90:B90)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>8</v>
       </c>
@@ -1396,10 +1503,11 @@
         <v>46</v>
       </c>
       <c r="C91" s="2">
-        <f>SUM(A91:B91)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>82</v>
       </c>
@@ -1407,10 +1515,11 @@
         <v>67</v>
       </c>
       <c r="C92" s="2">
-        <f>SUM(A92:B92)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>36</v>
       </c>
@@ -1418,10 +1527,11 @@
         <v>62</v>
       </c>
       <c r="C93" s="2">
-        <f>SUM(A93:B93)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>42</v>
       </c>
@@ -1429,10 +1539,11 @@
         <v>67</v>
       </c>
       <c r="C94" s="2">
-        <f>SUM(A94:B94)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>64</v>
       </c>
@@ -1440,10 +1551,11 @@
         <v>66</v>
       </c>
       <c r="C95" s="2">
-        <f>SUM(A95:B95)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>44</v>
       </c>
@@ -1451,10 +1563,11 @@
         <v>58</v>
       </c>
       <c r="C96" s="2">
-        <f>SUM(A96:B96)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>82</v>
       </c>
@@ -1462,10 +1575,11 @@
         <v>58</v>
       </c>
       <c r="C97" s="2">
-        <f>SUM(A97:B97)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>26</v>
       </c>
@@ -1473,10 +1587,11 @@
         <v>63</v>
       </c>
       <c r="C98" s="2">
-        <f>SUM(A98:B98)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>59</v>
       </c>
@@ -1484,10 +1599,11 @@
         <v>49</v>
       </c>
       <c r="C99" s="2">
-        <f>SUM(A99:B99)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>63</v>
       </c>
@@ -1495,10 +1611,11 @@
         <v>50</v>
       </c>
       <c r="C100" s="2">
-        <f>SUM(A100:B100)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>20</v>
       </c>
@@ -1506,7 +1623,488 @@
         <v>41</v>
       </c>
       <c r="C101" s="2">
-        <f>SUM(A101:B101)</f>
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>80</v>
+      </c>
+      <c r="B102" s="1">
+        <v>83</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>63</v>
+      </c>
+      <c r="B103" s="1">
+        <v>66</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>92</v>
+      </c>
+      <c r="B104" s="1">
+        <v>89</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>59</v>
+      </c>
+      <c r="B105" s="1">
+        <v>63</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>23</v>
+      </c>
+      <c r="B106" s="1">
+        <v>63</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>45</v>
+      </c>
+      <c r="B107" s="1">
+        <v>64</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>90</v>
+      </c>
+      <c r="B108" s="1">
+        <v>94</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="3"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>1</v>
+      </c>
+      <c r="B109" s="1">
+        <v>60</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
+        <v>34</v>
+      </c>
+      <c r="B110" s="1">
+        <v>66</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>71</v>
+      </c>
+      <c r="B111" s="1">
+        <v>59</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>4</v>
+      </c>
+      <c r="B112" s="1">
+        <v>36</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>35</v>
+      </c>
+      <c r="B113" s="1">
+        <v>43</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>28</v>
+      </c>
+      <c r="B114" s="1">
+        <v>53</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>93</v>
+      </c>
+      <c r="B115" s="1">
+        <v>64</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
+        <v>62</v>
+      </c>
+      <c r="B116" s="1">
+        <v>59</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
+        <v>92</v>
+      </c>
+      <c r="B117" s="1">
+        <v>78</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
+        <v>56</v>
+      </c>
+      <c r="B118" s="1">
+        <v>59</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
+        <v>86</v>
+      </c>
+      <c r="B119" s="1">
+        <v>73</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
+        <v>22</v>
+      </c>
+      <c r="B120" s="1">
+        <v>50</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>54</v>
+      </c>
+      <c r="B121" s="1">
+        <v>39</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
+        <v>44</v>
+      </c>
+      <c r="B122" s="1">
+        <v>48</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
+        <v>21</v>
+      </c>
+      <c r="B123" s="1">
+        <v>44</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
+        <v>29</v>
+      </c>
+      <c r="B124" s="1">
+        <v>36</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125" s="1">
+        <v>69</v>
+      </c>
+      <c r="B125" s="1">
+        <v>65</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
+        <v>100</v>
+      </c>
+      <c r="B126" s="1">
+        <v>79</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="3"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
+        <v>5</v>
+      </c>
+      <c r="B127" s="1">
+        <v>39</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
+        <v>9</v>
+      </c>
+      <c r="B128" s="1">
+        <v>53</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
+        <v>48</v>
+      </c>
+      <c r="B129" s="1">
+        <v>53</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
+        <v>56</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
+        <v>13</v>
+      </c>
+      <c r="B131" s="1">
+        <v>49</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
+        <v>83</v>
+      </c>
+      <c r="B132" s="1">
+        <v>73</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1">
+        <v>59</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
+        <v>60</v>
+      </c>
+      <c r="B134" s="1">
+        <v>42</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" s="1">
+        <v>58</v>
+      </c>
+      <c r="B135" s="1">
+        <v>68</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" s="1">
+        <v>43</v>
+      </c>
+      <c r="B136" s="1">
+        <v>69</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" s="1">
+        <v>23</v>
+      </c>
+      <c r="B137" s="1">
+        <v>46</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" s="1">
+        <v>30</v>
+      </c>
+      <c r="B138" s="1">
+        <v>58</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
+        <v>56</v>
+      </c>
+      <c r="B139" s="1">
+        <v>56</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" s="1">
+        <v>11</v>
+      </c>
+      <c r="B140" s="1">
+        <v>60</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" s="1">
+        <v>23</v>
+      </c>
+      <c r="B141" s="1">
+        <v>51</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="3"/>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
